--- a/biology/Botanique/Thyrsosalacia_racemosa/Thyrsosalacia_racemosa.xlsx
+++ b/biology/Botanique/Thyrsosalacia_racemosa/Thyrsosalacia_racemosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thyrsosalacia racemosa est une espèce de plantes de la famille des Celastraceae et du genre Thyrsosalacia, endémique du Cameroun. 
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une liane ligneuse[4] en croissance sur des arbres de basse et moyenne  altitude[5]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une liane ligneuse en croissance sur des arbres de basse et moyenne  altitude. 
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Distribution et écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Endémique du Cameroun, elle n'a d'abord été connue qu'à travers les spécimens récoltés en 1908-1909 par Carl Ludwig Ledermann sur trois sites entre Yabassi et Loum (région du Littoral)[6]. C'est pourquoi elle était alors considérée comme « en danger critique d'extinction ».
-Comme d'autres localisations ont été identifiées par la suite[7], notamment près d'Éséka dans la région du Centre, son statut a été modifié. Elle reste cependant « vulnérable », du fait de la déforestation et de l'expansion de l'agriculture[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Endémique du Cameroun, elle n'a d'abord été connue qu'à travers les spécimens récoltés en 1908-1909 par Carl Ludwig Ledermann sur trois sites entre Yabassi et Loum (région du Littoral). C'est pourquoi elle était alors considérée comme « en danger critique d'extinction ».
+Comme d'autres localisations ont été identifiées par la suite, notamment près d'Éséka dans la région du Centre, son statut a été modifié. Elle reste cependant « vulnérable », du fait de la déforestation et de l'expansion de l'agriculture.
 </t>
         </is>
       </c>
